--- a/test_data/document/red.xlsx
+++ b/test_data/document/red.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation_test_project\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation_test_project\test_data\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>帐号</t>
   </si>
@@ -36,10 +36,13 @@
     <t>前台备注</t>
   </si>
   <si>
-    <t>QAUser</t>
-  </si>
-  <si>
     <t>QA_automation</t>
+  </si>
+  <si>
+    <t>DS_player8</t>
+  </si>
+  <si>
+    <t>DS_player4</t>
   </si>
 </sst>
 </file>
@@ -370,11 +373,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,16 +401,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/document/red.xlsx
+++ b/test_data/document/red.xlsx
@@ -90,9 +90,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -373,11 +376,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,6 +430,60 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+    </row>
   </sheetData>
   <autoFilter ref="B1:D1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_data/document/red.xlsx
+++ b/test_data/document/red.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>帐号</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>DS_player4</t>
+  </si>
+  <si>
+    <t>QA_tags02210257</t>
   </si>
 </sst>
 </file>
@@ -90,11 +93,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -380,12 +386,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD21"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="15" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -403,8 +410,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
+      <c r="A2" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -431,10 +438,18 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>

--- a/test_data/document/red.xlsx
+++ b/test_data/document/red.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>帐号</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>DS_player4</t>
-  </si>
-  <si>
-    <t>QA_tags02210257</t>
   </si>
 </sst>
 </file>
@@ -93,14 +90,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -382,11 +376,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,8 +404,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -424,8 +418,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
+      <c r="A3" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -437,19 +431,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -495,9 +478,6 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:D1"/>
